--- a/docs/rocketmq/rocketmq接口文档.xlsx
+++ b/docs/rocketmq/rocketmq接口文档.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\dongwei8\code\rocketmq\docs\rocketmq\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="158">
   <si>
     <t>请求编码</t>
   </si>
@@ -76,18 +81,10 @@
     <t>consumer</t>
   </si>
   <si>
-    <t>线程ConsumeMessageThread_消费消息返回失败后调用</t>
-  </si>
-  <si>
     <t>发送消息ACK确认，消息会写到commitlog</t>
   </si>
   <si>
     <t>RequestCode.PULL_MESSAGE</t>
-  </si>
-  <si>
-    <t>1、线程pullMessageService一直从队列中拿数据然后拉取消息，rebalanceService线程一直往pullMessageService队列中push数据
-2、TOPIC队列数据发生变化
-3、有新的consumer加入</t>
   </si>
   <si>
     <t>拉取消息</t>
@@ -229,16 +226,10 @@
     <t>RequestCode.CONSUME_MESSAGE_DIRECTLY</t>
   </si>
   <si>
-    <t>RequestCode.PUSH_REPLY_MESSAGE_TO_CLIENT</t>
-  </si>
-  <si>
     <t>推送回复消息给客户端</t>
   </si>
   <si>
     <t>RequestCode.SEND_REPLY_MESSAGE</t>
-  </si>
-  <si>
-    <t>暂无调用地方</t>
   </si>
   <si>
     <t>ReplyMessageProcessor</t>
@@ -297,9 +288,6 @@
   </si>
   <si>
     <t>RequestCode.GET_ALL_TOPIC_LIST_FROM_NAMESERVER</t>
-  </si>
-  <si>
-    <t>RequestCode.DELETE_TOPIC_IN_NAMESRV</t>
   </si>
   <si>
     <t>RequestCode.GET_KVLIST_BY_NAMESPACE</t>
@@ -358,9 +346,6 @@
   </si>
   <si>
     <t>AminBrokerProcessor</t>
-  </si>
-  <si>
-    <t>RequestCode.DELETE_TOPIC_IN_BROKER</t>
   </si>
   <si>
     <t>删掉指定topicName对应的topic信息</t>
@@ -686,165 +671,66 @@
   <si>
     <t>RequestCode.RESUME_CHECK_HALF_MESSAGE</t>
   </si>
+  <si>
+    <t>暂无调用地方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestCode.PUSH_REPLY_MESSAGE_TO_CLIENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestCode.CONSUME_MESSAGE_DIRECTLY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestCode.DELETE_TOPIC_IN_NAMESRV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestCode.DELETE_TOPIC_IN_BROKER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roker</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删掉nameserver中的topic信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、线程pullMessageService一直从队列中拿数据然后拉取消息，rebalanceService线程一直往pullMessageService队列中push数据
+2、TOPIC队列数据发生变化
+3、有新的consumer加入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程ConsumeMessageThread_消费消息返回失败后调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -856,8 +742,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,7 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,180 +778,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1074,253 +812,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1339,62 +835,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1652,19 +1111,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -1677,7 +1136,7 @@
     <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1794,11 +1253,11 @@
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -1807,9 +1266,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="57" hidden="1" spans="1:8">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
@@ -1820,46 +1279,46 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" hidden="1" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>33</v>
@@ -1870,18 +1329,18 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -1894,18 +1353,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" hidden="1" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>15</v>
@@ -1917,21 +1376,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="B11" s="3">
         <v>38</v>
@@ -1943,97 +1402,97 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" ht="57" hidden="1" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" hidden="1" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" hidden="1" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3">
         <v>37</v>
@@ -2047,15 +1506,15 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="6">
         <v>221</v>
@@ -2067,21 +1526,21 @@
         <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B17" s="6">
         <v>39</v>
@@ -2093,21 +1552,21 @@
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" ht="42.75" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="B18" s="6">
         <v>40</v>
@@ -2119,21 +1578,21 @@
         <v>18</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="B19" s="6">
         <v>220</v>
@@ -2145,21 +1604,21 @@
         <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>307</v>
@@ -2173,15 +1632,15 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="B21" s="6">
         <v>309</v>
@@ -2195,15 +1654,15 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="B22" s="6">
         <v>326</v>
@@ -2216,18 +1675,18 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3">
         <v>324</v>
@@ -2236,20 +1695,20 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>70</v>
+      <c r="E23" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3">
         <v>325</v>
@@ -2258,100 +1717,100 @@
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
+      <c r="E24" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" s="8">
         <v>100</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" s="8">
         <v>101</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8">
         <v>102</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="B28" s="8">
         <v>322</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H28" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B29" s="8">
         <v>103</v>
@@ -2360,24 +1819,24 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30" s="8">
         <v>104</v>
@@ -2386,20 +1845,20 @@
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31" s="8">
         <v>105</v>
@@ -2408,348 +1867,354 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B32" s="8">
         <v>106</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B33" s="8">
         <v>205</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="8">
         <v>206</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="B35" s="8">
         <v>216</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G35" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B36" s="8">
         <v>219</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B37" s="8">
         <v>224</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B38" s="8">
         <v>304</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B39" s="8">
         <v>311</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B40" s="8">
         <v>312</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B41" s="8">
         <v>313</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B42" s="8">
         <v>318</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B43" s="8">
         <v>319</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>104</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B45" s="2">
         <v>215</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2">
         <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2">
         <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
@@ -2757,21 +2222,21 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -2779,21 +2244,21 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
@@ -2801,47 +2266,47 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2">
         <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2">
         <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
@@ -2849,21 +2314,21 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2">
         <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>10</v>
@@ -2871,21 +2336,21 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2">
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
@@ -2893,21 +2358,21 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2">
         <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>10</v>
@@ -2915,21 +2380,21 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>10</v>
@@ -2937,21 +2402,21 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2">
         <v>200</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>10</v>
@@ -2959,21 +2424,21 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2">
         <v>201</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
@@ -2981,21 +2446,21 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2">
         <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>10</v>
@@ -3003,47 +2468,47 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2">
         <v>202</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2">
         <v>203</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -3051,21 +2516,21 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2">
         <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>10</v>
@@ -3073,21 +2538,21 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2">
         <v>208</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
@@ -3095,21 +2560,21 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2">
         <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -3117,21 +2582,21 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2">
         <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
@@ -3139,47 +2604,47 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2">
         <v>222</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2">
         <v>223</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>10</v>
@@ -3187,45 +2652,45 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2">
         <v>300</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2">
         <v>301</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>10</v>
@@ -3233,21 +2698,21 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2">
         <v>303</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>10</v>
@@ -3255,47 +2720,47 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2">
         <v>305</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2">
         <v>306</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -3303,21 +2768,21 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2">
         <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>10</v>
@@ -3325,21 +2790,21 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
         <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
@@ -3347,21 +2812,21 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2">
         <v>308</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -3369,21 +2834,21 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2">
         <v>309</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -3391,21 +2856,21 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2">
         <v>314</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>10</v>
@@ -3413,21 +2878,21 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2">
         <v>315</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>10</v>
@@ -3435,21 +2900,21 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2">
         <v>317</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -3457,21 +2922,21 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2">
         <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>10</v>
@@ -3479,21 +2944,21 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2">
         <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>10</v>
@@ -3501,21 +2966,21 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2">
         <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>10</v>
@@ -3523,21 +2988,21 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B82" s="2">
         <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>10</v>
@@ -3545,21 +3010,21 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2">
         <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>10</v>
@@ -3567,21 +3032,21 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B84" s="2">
         <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>10</v>
@@ -3589,21 +3054,21 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2">
         <v>323</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>10</v>
@@ -3611,34 +3076,19 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H85">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="broker&#10;consumer"/>
-        <filter val="consumer"/>
-        <filter val="broker"/>
-        <filter val="producer"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="consumer"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H85"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="RequestCode.SEND_MESSAGE_V2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/rocketmq/rocketmq接口文档.xlsx
+++ b/docs/rocketmq/rocketmq接口文档.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="159">
   <si>
     <t>请求编码</t>
   </si>
@@ -75,13 +75,7 @@
     <t>发送批量消息，消息会写到commitlog</t>
   </si>
   <si>
-    <t>RequestCode.CONSUMER_SEND_MSG_BACK</t>
-  </si>
-  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>发送消息ACK确认，消息会写到commitlog</t>
   </si>
   <si>
     <t>RequestCode.PULL_MESSAGE</t>
@@ -132,9 +126,6 @@
   </si>
   <si>
     <t>RequestCode.GET_CONSUMER_LIST_BY_GROUP</t>
-  </si>
-  <si>
-    <t>rebalanceServic线程定时获取consumer列表信息</t>
   </si>
   <si>
     <t>根据消费者组查询consumer信息</t>
@@ -720,6 +711,22 @@
   </si>
   <si>
     <t>线程ConsumeMessageThread_消费消息返回失败后调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestCode.CONSUMER_SEND_MSG_BACK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebalanceService线程定时获取consumer列表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息，消息会写到commitlog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息ACK确认，消息会写到commitlog</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,8 +1185,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
+      <c r="F2" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>13</v>
@@ -1242,22 +1249,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -1268,25 +1275,25 @@
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -1294,23 +1301,23 @@
     </row>
     <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
@@ -1318,7 +1325,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>33</v>
@@ -1329,10 +1336,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -1340,23 +1347,23 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -1364,25 +1371,25 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -1390,25 +1397,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3">
         <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -1416,25 +1423,25 @@
     </row>
     <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -1442,25 +1449,25 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -1468,23 +1475,23 @@
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
@@ -1492,7 +1499,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3">
         <v>37</v>
@@ -1506,7 +1513,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -1514,7 +1521,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6">
         <v>221</v>
@@ -1523,24 +1530,24 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6">
         <v>39</v>
@@ -1552,21 +1559,21 @@
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="6">
         <v>40</v>
@@ -1575,24 +1582,24 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6">
         <v>220</v>
@@ -1601,24 +1608,24 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6">
         <v>307</v>
@@ -1627,20 +1634,20 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B21" s="6">
         <v>309</v>
@@ -1649,20 +1656,20 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="6">
         <v>326</v>
@@ -1675,18 +1682,18 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>324</v>
@@ -1696,11 +1703,11 @@
         <v>10</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -1708,7 +1715,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="3">
         <v>325</v>
@@ -1718,11 +1725,11 @@
         <v>10</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
@@ -1730,87 +1737,87 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8">
         <v>100</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="8">
         <v>101</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="8">
         <v>102</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="8">
         <v>322</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B29" s="8">
         <v>103</v>
@@ -1819,24 +1826,24 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8">
         <v>104</v>
@@ -1845,20 +1852,20 @@
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" s="8">
         <v>105</v>
@@ -1867,288 +1874,288 @@
         <v>9</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B32" s="8">
         <v>106</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" s="8">
         <v>205</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B34" s="8">
         <v>206</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" s="8">
         <v>216</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B36" s="8">
         <v>219</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B37" s="8">
         <v>224</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B38" s="8">
         <v>304</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" s="8">
         <v>311</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" s="8">
         <v>312</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B41" s="8">
         <v>313</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="8">
         <v>318</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="8">
         <v>319</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2">
         <v>17</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>10</v>
@@ -2156,25 +2163,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45" s="2">
         <v>215</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>10</v>
@@ -2182,25 +2189,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2">
         <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>10</v>
@@ -2208,13 +2215,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2">
         <v>25</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
@@ -2222,7 +2229,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>10</v>
@@ -2230,13 +2237,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -2244,7 +2251,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>10</v>
@@ -2252,13 +2259,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2">
         <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>10</v>
@@ -2266,7 +2273,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>10</v>
@@ -2274,25 +2281,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2">
         <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>10</v>
@@ -2300,13 +2307,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2">
         <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
@@ -2314,7 +2321,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>10</v>
@@ -2322,13 +2329,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2">
         <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>10</v>
@@ -2336,7 +2343,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>10</v>
@@ -2344,13 +2351,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2">
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
@@ -2358,7 +2365,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>10</v>
@@ -2366,13 +2373,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2">
         <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>10</v>
@@ -2380,7 +2387,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>10</v>
@@ -2388,13 +2395,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>10</v>
@@ -2402,7 +2409,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>10</v>
@@ -2410,13 +2417,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B56" s="2">
         <v>200</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>10</v>
@@ -2424,7 +2431,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>10</v>
@@ -2432,13 +2439,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2">
         <v>201</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
@@ -2446,7 +2453,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>10</v>
@@ -2454,13 +2461,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2">
         <v>207</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>10</v>
@@ -2468,7 +2475,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>10</v>
@@ -2476,25 +2483,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2">
         <v>202</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>10</v>
@@ -2502,13 +2509,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2">
         <v>203</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>10</v>
@@ -2516,7 +2523,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>10</v>
@@ -2524,13 +2531,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2">
         <v>204</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>10</v>
@@ -2538,7 +2545,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>10</v>
@@ -2546,13 +2553,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2">
         <v>208</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
@@ -2560,7 +2567,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>10</v>
@@ -2568,13 +2575,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2">
         <v>43</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -2582,7 +2589,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>10</v>
@@ -2590,13 +2597,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2">
         <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
@@ -2604,7 +2611,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>10</v>
@@ -2612,25 +2619,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B65" s="2">
         <v>222</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>10</v>
@@ -2638,13 +2645,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B66" s="2">
         <v>223</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>10</v>
@@ -2652,7 +2659,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>10</v>
@@ -2660,23 +2667,23 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2">
         <v>300</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>10</v>
@@ -2684,13 +2691,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2">
         <v>301</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>10</v>
@@ -2698,7 +2705,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>10</v>
@@ -2706,13 +2713,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B69" s="2">
         <v>303</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>10</v>
@@ -2720,7 +2727,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>10</v>
@@ -2728,25 +2735,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2">
         <v>305</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>10</v>
@@ -2754,13 +2761,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2">
         <v>306</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -2768,7 +2775,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>10</v>
@@ -2776,13 +2783,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2">
         <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>10</v>
@@ -2790,7 +2797,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>10</v>
@@ -2798,13 +2805,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2">
         <v>307</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
@@ -2812,7 +2819,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>10</v>
@@ -2820,13 +2827,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2">
         <v>308</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>10</v>
@@ -2834,7 +2841,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>10</v>
@@ -2842,13 +2849,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B75" s="2">
         <v>309</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>10</v>
@@ -2856,7 +2863,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>10</v>
@@ -2864,13 +2871,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2">
         <v>314</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>10</v>
@@ -2878,7 +2885,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>10</v>
@@ -2886,13 +2893,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2">
         <v>315</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>10</v>
@@ -2900,7 +2907,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>10</v>
@@ -2908,13 +2915,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2">
         <v>317</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -2922,7 +2929,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>10</v>
@@ -2930,13 +2937,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2">
         <v>321</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>10</v>
@@ -2944,7 +2951,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>10</v>
@@ -2952,13 +2959,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2">
         <v>50</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>10</v>
@@ -2966,7 +2973,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>10</v>
@@ -2974,13 +2981,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B81" s="2">
         <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>10</v>
@@ -2988,7 +2995,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>10</v>
@@ -2996,13 +3003,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B82" s="2">
         <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>10</v>
@@ -3010,7 +3017,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>10</v>
@@ -3018,13 +3025,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B83" s="2">
         <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>10</v>
@@ -3032,7 +3039,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>10</v>
@@ -3040,13 +3047,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B84" s="2">
         <v>54</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>10</v>
@@ -3054,7 +3061,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>10</v>
@@ -3062,13 +3069,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B85" s="2">
         <v>323</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>10</v>
@@ -3076,7 +3083,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>10</v>
